--- a/inst/extdata/COP25_Data_Pack_Template_Simple.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template_Simple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5865DB2-0F38-4103-9524-EA6C7791E308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82D001E-7C9F-45B4-ACCE-722A17D60EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37080" yWindow="-1125" windowWidth="34995" windowHeight="17355" activeTab="1" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -2762,9 +2762,6 @@
     <t>Make sure MER includes &lt;01 for HTS_TST metadata</t>
   </si>
   <si>
-    <t>FY26 Target Setting Tool</t>
-  </si>
-  <si>
     <t>PLHIV to Identify (FY26)</t>
   </si>
   <si>
@@ -2908,6 +2905,9 @@
   </si>
   <si>
     <t>PSNU Estimates</t>
+  </si>
+  <si>
+    <t>FY26 Target Setting Tool - Simplified</t>
   </si>
 </sst>
 </file>
@@ -5696,7 +5696,7 @@
     </row>
     <row r="10" spans="2:2" ht="97.2">
       <c r="B10" s="6" t="s">
-        <v>655</v>
+        <v>699</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="82.2">
@@ -6695,43 +6695,43 @@
         <v>481</v>
       </c>
       <c r="G3" s="203" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H3" s="372" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I3" s="372" t="s">
+        <v>671</v>
+      </c>
+      <c r="J3" s="372" t="s">
         <v>672</v>
       </c>
-      <c r="J3" s="372" t="s">
+      <c r="K3" s="203" t="s">
+        <v>669</v>
+      </c>
+      <c r="L3" s="203" t="s">
+        <v>670</v>
+      </c>
+      <c r="M3" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="K3" s="203" t="s">
-        <v>670</v>
-      </c>
-      <c r="L3" s="203" t="s">
-        <v>671</v>
-      </c>
-      <c r="M3" s="30" t="s">
+      <c r="N3" s="30" t="s">
         <v>674</v>
       </c>
-      <c r="N3" s="30" t="s">
-        <v>675</v>
-      </c>
       <c r="O3" s="118" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="P3" s="63" t="s">
         <v>649</v>
       </c>
       <c r="Q3" s="64" t="s">
+        <v>675</v>
+      </c>
+      <c r="R3" s="388" t="s">
         <v>676</v>
       </c>
-      <c r="R3" s="388" t="s">
-        <v>677</v>
-      </c>
       <c r="S3" s="389" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="T3" s="203" t="s">
         <v>614</v>
@@ -6819,7 +6819,7 @@
         <v>#REF!</v>
       </c>
       <c r="V4" s="110" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="W4" s="32">
         <v>0</v>
@@ -7078,16 +7078,16 @@
     </row>
     <row r="8" spans="1:26">
       <c r="I8" s="387" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J8" s="387" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M8" s="347" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N8" s="347" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q8" s="243" t="s">
         <v>96</v>
@@ -7110,16 +7110,16 @@
     </row>
     <row r="9" spans="1:26">
       <c r="I9" s="387" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J9" s="387" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M9" s="347" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N9" s="347" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="Q9" s="243" t="s">
         <v>97</v>
@@ -7310,28 +7310,28 @@
         <v>147</v>
       </c>
       <c r="G14" s="174" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H14" s="327" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I14" s="327" t="s">
+        <v>663</v>
+      </c>
+      <c r="J14" s="327" t="s">
         <v>664</v>
       </c>
-      <c r="J14" s="327" t="s">
-        <v>665</v>
-      </c>
       <c r="K14" s="174" t="s">
+        <v>681</v>
+      </c>
+      <c r="L14" s="174" t="s">
         <v>682</v>
       </c>
-      <c r="L14" s="174" t="s">
-        <v>683</v>
-      </c>
       <c r="M14" s="196" t="s">
+        <v>661</v>
+      </c>
+      <c r="N14" s="196" t="s">
         <v>662</v>
-      </c>
-      <c r="N14" s="196" t="s">
-        <v>663</v>
       </c>
       <c r="O14" s="170" t="s">
         <v>148</v>
@@ -7346,13 +7346,13 @@
         <v>159</v>
       </c>
       <c r="S14" s="170" t="s">
+        <v>684</v>
+      </c>
+      <c r="T14" s="174" t="s">
+        <v>683</v>
+      </c>
+      <c r="U14" s="175" t="s">
         <v>685</v>
-      </c>
-      <c r="T14" s="174" t="s">
-        <v>684</v>
-      </c>
-      <c r="U14" s="175" t="s">
-        <v>686</v>
       </c>
       <c r="V14" s="175" t="s">
         <v>442</v>
@@ -7439,7 +7439,7 @@
     </row>
     <row r="16" spans="1:26">
       <c r="I16" s="402" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J16" s="402"/>
       <c r="K16"/>
@@ -11292,7 +11292,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S1378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -25391,7 +25391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40C0D9C-55AA-4B47-A16E-7BAE8CBB2B91}">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -25420,7 +25420,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="24" thickBot="1">
       <c r="A1" s="265" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -26739,7 +26739,7 @@
         <v>486</v>
       </c>
       <c r="BI3" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:61">
@@ -66767,19 +66767,19 @@
         <v>579</v>
       </c>
       <c r="G3" s="379" t="s">
+        <v>656</v>
+      </c>
+      <c r="H3" s="379" t="s">
         <v>657</v>
       </c>
-      <c r="H3" s="379" t="s">
-        <v>658</v>
-      </c>
       <c r="I3" s="376" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J3" s="379" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K3" s="403" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L3" s="118" t="s">
         <v>651</v>
@@ -66828,7 +66828,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="110" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="O4" s="32">
         <f ca="1">SUBTOTAL(109,O$15:INDEX(O:O,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
@@ -67040,11 +67040,11 @@
       <c r="J8" s="381"/>
       <c r="K8" s="381"/>
       <c r="M8" s="413" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N8" s="391"/>
       <c r="O8" s="375" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Q8" s="250" t="s">
         <v>108</v>
@@ -67066,11 +67066,11 @@
       <c r="J9" s="381"/>
       <c r="K9" s="381"/>
       <c r="M9" s="413" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N9" s="391"/>
       <c r="O9" s="375" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="Q9" s="250" t="s">
         <v>109</v>
@@ -67233,19 +67233,19 @@
         <v>412</v>
       </c>
       <c r="G14" s="382" t="s">
+        <v>658</v>
+      </c>
+      <c r="H14" s="382" t="s">
         <v>659</v>
       </c>
-      <c r="H14" s="382" t="s">
+      <c r="I14" s="382" t="s">
         <v>660</v>
       </c>
-      <c r="I14" s="382" t="s">
-        <v>661</v>
-      </c>
       <c r="J14" s="382" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K14" s="382" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L14" s="170" t="s">
         <v>232</v>
@@ -67254,7 +67254,7 @@
         <v>209</v>
       </c>
       <c r="N14" s="175" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O14" s="196" t="s">
         <v>218</v>
